--- a/src/test/resources/temp/issue2319/test1.xlsx
+++ b/src/test/resources/temp/issue2319/test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\89299\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\IDEA\easyexcel3\src\test\resources\temp\issue2319\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8065F631-358E-43F9-ADE8-F81199E62FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2FF477-6662-4C70-81E7-3132DD3B111D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{363E62DD-50D6-4066-9477-69F3048B3D56}"/>
+    <workbookView xWindow="1430" yWindow="1690" windowWidth="12940" windowHeight="11170" xr2:uid="{363E62DD-50D6-4066-9477-69F3048B3D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,23 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>num1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0\.0,"/>
+    <numFmt numFmtId="176" formatCode="0\.0,"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -82,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,19 +412,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69EC754-9D00-48EA-A9A7-6DBFFE434821}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>9234</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>9234</v>
       </c>
     </row>
